--- a/database/relatorio/PE 90006-2024/WE_COMERCIO_DE_PRODUTOS_E_UTILIDADES_DOMESTICAS_LTDA/relacao_itens.xlsx
+++ b/database/relatorio/PE 90006-2024/WE_COMERCIO_DE_PRODUTOS_E_UTILIDADES_DOMESTICAS_LTDA/relacao_itens.xlsx
@@ -439,7 +439,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Item: 112 - HIPOCLORITO DE SÓDIO (431304)</t>
+          <t>Grupo N/A - Item 112 - HIPOCLORITO DE SÓDIO (431304)</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Item: 113 - HIPOCLORITO DE SÓDIO (437156)</t>
+          <t>Grupo N/A - Item 113 - HIPOCLORITO DE SÓDIO (437156)</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Item: 144 - SACO PLÁSTICO LIXO (232471)</t>
+          <t>Grupo N/A - Item 144 - SACO PLÁSTICO LIXO (232471)</t>
         </is>
       </c>
     </row>
